--- a/data/zgdj.xlsx
+++ b/data/zgdj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="20" windowWidth="25600" windowHeight="17200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2480" yWindow="20" windowWidth="25600" windowHeight="17200" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Samlet" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <definedName name="ekstra" localSheetId="4">Ekstra!$A$1:$G$33</definedName>
     <definedName name="politik" localSheetId="1">Politik!$A$1:$K$33</definedName>
     <definedName name="quanzhen" localSheetId="2">Quanzhen!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Daoisme!$A$61:$J$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Ekstra!$A$61:$K$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Politik!$A$61:$F$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Quanzhen!$A$61:$J$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Samlet!$A$61:$K$90</definedName>
     <definedName name="zgdj" localSheetId="0">Samlet!#REF!</definedName>
     <definedName name="zgdj_1" localSheetId="0">Samlet!$A$2:$C$129</definedName>
@@ -122,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Quanzhen</t>
   </si>
@@ -137,21 +141,6 @@
   </si>
   <si>
     <t>År</t>
-  </si>
-  <si>
-    <t>_r</t>
-  </si>
-  <si>
-    <t>De_fire_kardinalpunkter</t>
-  </si>
-  <si>
-    <t>Videnskabelig_udvikling</t>
-  </si>
-  <si>
-    <t>Harmonisk_Samfund</t>
-  </si>
-  <si>
-    <t>Tilpasse_religion_til_socialismen</t>
   </si>
   <si>
     <t>Standardisering/Normalisering</t>
@@ -170,12 +159,6 @@
   </si>
   <si>
     <t>Longmen</t>
-  </si>
-  <si>
-    <t>Qiu_Chuji</t>
-  </si>
-  <si>
-    <t>Forfinet_kultivation</t>
   </si>
   <si>
     <t>Initiation</t>
@@ -202,12 +185,6 @@
     <t>Zhengyi</t>
   </si>
   <si>
-    <t>Huoju_Daoshi</t>
-  </si>
-  <si>
-    <t>Sanju_Daoshi</t>
-  </si>
-  <si>
     <t>Shoulu</t>
   </si>
   <si>
@@ -226,16 +203,7 @@
     <t>Qigong</t>
   </si>
   <si>
-    <t>Tilbagelevering_af_religiøs_ejendom</t>
-  </si>
-  <si>
     <t>Xiejiao</t>
-  </si>
-  <si>
-    <t>Falun_Gong</t>
-  </si>
-  <si>
-    <t>Human_Rights_Watch</t>
   </si>
   <si>
     <t>Turisme</t>
@@ -247,7 +215,40 @@
     <t>Kulturarv</t>
   </si>
   <si>
-    <t>De_tre_repr_sentanter</t>
+    <t>Religionsfrihed</t>
+  </si>
+  <si>
+    <t>Tilbagelevering af religiøs ejendom</t>
+  </si>
+  <si>
+    <t>Qiu Chuji</t>
+  </si>
+  <si>
+    <t>Forfinet kultivation</t>
+  </si>
+  <si>
+    <t>Falun Gong</t>
+  </si>
+  <si>
+    <t>Huoju Daoshi</t>
+  </si>
+  <si>
+    <t>Sanju Daoshi</t>
+  </si>
+  <si>
+    <t>De fire kardinalpunkter</t>
+  </si>
+  <si>
+    <t>De tre repræsentanter</t>
+  </si>
+  <si>
+    <t>Videnskabelig udvikling</t>
+  </si>
+  <si>
+    <t>Harmonisk Samfund</t>
+  </si>
+  <si>
+    <t>Tilpasse religion til socialismen</t>
   </si>
 </sst>
 </file>
@@ -507,10 +508,10 @@
                   <c:v>-9.140471927804411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.66326158894731</c:v>
+                  <c:v>-9.80765149828249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.1899127836188</c:v>
+                  <c:v>-10.3616791318853</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-8.40350371175046</c:v>
@@ -525,58 +526,58 @@
                   <c:v>-8.1417422336716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.18941617575931</c:v>
+                  <c:v>-8.33067183437035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.64679202381898</c:v>
+                  <c:v>-7.83351226780427</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.27155029472274</c:v>
+                  <c:v>-8.38123392364974</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.70590965849805</c:v>
+                  <c:v>-7.96538624491866</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.17848701494573</c:v>
+                  <c:v>-8.33376524042364</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.79869583946543</c:v>
+                  <c:v>-8.88296475636303</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.3591283688267</c:v>
+                  <c:v>-9.4441644726825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8.27516121727302</c:v>
+                  <c:v>-8.464763703491799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9.5716198114435</c:v>
+                  <c:v>-9.53442787651592</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.82612472607744</c:v>
+                  <c:v>-9.14055828441788</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.43483353615242</c:v>
+                  <c:v>-9.75433489364524</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.63226821549951</c:v>
+                  <c:v>-8.8770873846891</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8.8462739113499</c:v>
+                  <c:v>-9.13249310460449</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.56592572067081</c:v>
+                  <c:v>-8.79880262774105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.80530612402207</c:v>
+                  <c:v>-8.99059952688759</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.61013003331812</c:v>
+                  <c:v>-8.97504405317113</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.41638642898673</c:v>
+                  <c:v>-8.65308668700706</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.40132168232846</c:v>
+                  <c:v>-8.66286184148193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,8 +1291,8 @@
         <c:axId val="-2058792648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-5.0"/>
-          <c:min val="-12.0"/>
+          <c:max val="-4.0"/>
+          <c:min val="-14.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1301,6 +1302,7090 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2058795128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>De fire kardinalpunkter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>-9.66266837551754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.1993656168579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.3065174452498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-10.238404739325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.1308922698066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>De tre repræsentanter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="21">
+                  <c:v>-9.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.651921439534361</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.00509486712276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.67187273345327</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.456696650916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.9775184446281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-12.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Videnskabelig udvikling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="8">
+                  <c:v>-11.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.238404739325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13.6718727334532</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.456696650916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.9775184446281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.62662165235837</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.236355941289551</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-11.0695616519554</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.94184791795923</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.60146129681778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Harmonisk Samfund</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="22">
+                  <c:v>-13.6963155588928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-11.3499446385659</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.81926673030076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.05468630515061</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.16719003372107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.42900101923194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.19509253403927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.35688541723807</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.27953320193042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tilpasse religion til socialismen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="14">
+                  <c:v>-9.71596199025514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.10612668551537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.91647664443771</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.98584193700334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.67146065116932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.96611717587785</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.23688394025552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.1480528209648</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12.0869102327321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11.304693557471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11.8163170358753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-12.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardisering/Normalisering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="2">
+                  <c:v>-10.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.4863322527686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.231221180711181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.49892589871688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.6632615889473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.16804526822408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.35339191087043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.91647664443771</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10.3077700318907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.3446287991315</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12.1113530581716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.4012795365965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KKP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-8.21237478756726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.66266837551754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.49518880889293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.2312211807111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.43740531230729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.39201069480037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.78879247103117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.0903771100679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.29658850783395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.38051802669359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.16804526822408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.04220656012068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.130999489533981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.81005329498028</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.23165756759923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.48351723716161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.22030719064036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.37600476764315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.3446287991315</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.69019871655187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.41091334003057</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.37546331706787</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.71767642306639</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.53915881110803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.392555943907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.304693557471</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.721782768459789</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.65452415267657</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.4012795365965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.60146129681778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-8.534302882454631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.6626683755175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.75822321472672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.9013697520475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.231221180711181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.02236781302845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.87743752197061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.24822408966847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.24238020351295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.40350371175046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.584051420778721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.12365114886563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.19420965356573</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.56912060192587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.08242556539341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.076379342121321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.71484278326806</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.05984251844711</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.13089226980662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.02270070424422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8.25049916303875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.39863501025213</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.73301532168596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.52212561394858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.58222753299991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.781121231824651</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.45669665091605</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.21928242793061</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.67724422917665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.27199651965156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.54256760776421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Patriotisme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$J$2:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-8.21237478756726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.080151309614079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.901369752047501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.90929308582382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.02236781302845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.61440311613682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.92629599478111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.5189809291704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.236128117358421</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.71596199025514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.7418817923387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.19923608990685</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.99047722588149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.55288252972723</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.67146065116932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.57909405276861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.44838804544923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.64555248043562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-11.0869102327321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.62662165235837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.97751844462815</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.81926673030076</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11.4587483626259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.1950925340392</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.4012795365965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.48598407939785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Politik!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marxisme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Politik!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Politik!$K$2:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="2">
+                  <c:v>-11.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.5233169123127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.6910891862365</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.91647664443771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12.1113530581716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.4110872267986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12.0869102327321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2053348872"/>
+        <c:axId val="-2053350296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2053348872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2012.0"/>
+          <c:min val="1979.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053350296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2053350296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-4.0"/>
+          <c:min val="-14.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053348872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quanzhen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="8">
+                  <c:v>-11.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.5233169123127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-12.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.6963155588928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12.6718727334532</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-12.4012795365965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Longmen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-5.48990876309617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.34074028063017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.91022630817177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.68383010524374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.48633225276866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.2312211807111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.85244281158614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.11190277560764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.85590666688971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.76844901518054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.103943429891549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.41899217450823</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.9201177547805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.77917215428689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.16576490769466</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.51632209192357</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.93620168407306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.33151414371656</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.72280753116954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.224001674198099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.66655689401895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8.88521469895701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.30399813611406</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.48508780824237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.9169852312898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.20035689765627</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.07062784901964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.0416591516372</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.52014890729014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.44507078704762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.29275507981835</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.32844280241137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qiu Chuji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forfinet kultivation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="12">
+                  <c:v>-10.5830827675029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initiation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-5.77941538029116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.49518880889293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.68383010524374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0223678130284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.55432420982769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.93401842844924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.58308276750293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.36413465500805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.85089157034125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.30481798672986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.3512391833519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.43104981726747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.66391384211597</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.96096726836431</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.0815943932977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-13.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.83833456376524</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.92566039962835</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.08691023273211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.89870119779517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.97751844462815</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.8192667303007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.95624802209681</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-11.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.0793514417091</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11.6014612968177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baiyunguan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-4.30548419195874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.07770587479638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.68783388683532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.78589253462757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.32433058510266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.37851162325372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.44447811469451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.92629599478111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.97767697731854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.10394342989155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.07385668845954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.03876225127912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.04220656012068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.21953616413564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.14953976125195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.38730843805942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.84608731654631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.11794547301068</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.21202903253202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.56852481105842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.214278975126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.86342554472807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.82612472607744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.649504920424809</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.39780296186248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.631743607786419</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.417168286729421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.07792657868506</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.71200964733733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.83903711237545</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.25568645997605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neidan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-6.44684004120429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.04795853140233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.75822321472672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.49118502730134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.1644041578813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.64625867999002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.85244281158614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.3413846217304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.96282187080622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.3037807481771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.10394342989155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.95602019816568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.77572784544532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.97181723222929</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.56912060192587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.85735900975864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.0472329964618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.23840473932507</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.848338413253399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.04342942855628</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.04450507456257</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.0098150317096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.61407424896245</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.88397017406183</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.76864065723079</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.66766318204137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.26906964774028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.48912201166951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.41611941335149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.79394922284691</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.17519654211569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zuobo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="25">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-13.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kloster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$J$2:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-10.5343028824546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.6626683755175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.4863322527686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.11547721741993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.043483039416</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.93835441159159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.1061266855153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11.3077700318907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.6665568940189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-13.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12.1113530581716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12.0869102327321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-13.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-12.4012795365965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quanzhen!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Munke</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quanzhen!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quanzhen!$K$2:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="4">
+                  <c:v>-9.901369752047501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.646258679990019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.1993656168579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.5233169123127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.3691610913491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.98584193700334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-13.6665568940189</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-13.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2054077160"/>
+        <c:axId val="-2053307800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2054077160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2012.0"/>
+          <c:min val="1979.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053307800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2053307800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-4.0"/>
+          <c:min val="-14.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2054077160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lingbao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-9.534302882454631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.02236781302845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11.1993656168579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.82109061807957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.9383544115915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.521164184794211</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.238404739325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11.5459297690854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.0815943932977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-12.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.1113530581716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10.9256603996283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.117283881775631</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.456696650916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-13.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.2313545351542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.8644957026515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zhengyi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="9">
+                  <c:v>-12.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.238404739325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-12.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12.6963155588928</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.4012795365965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Huoju Daoshi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="11">
+                  <c:v>-11.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.5233169123127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.5481797116794</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13.6718727334532</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-12.4012795365965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sanju Daoshi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="7">
+                  <c:v>-12.1993656168579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.827342704234111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.78201533500419</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.36413465500805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.96872806063511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.3691610913491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.238404739325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.26337591253224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.13089226980662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.6665568940189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.8889606368352</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.67187273345327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.1950925340392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shoulu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-9.534302882454631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.36069034616648</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.76842941014927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.9828898918425</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.23165756759923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.238404739325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.72280753116954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.323537347749</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.6665568940189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-11.1113530581716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.64555248043562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.5019477320109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.07203280068073</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.74397860299652</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.18572986821958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.29697214805849</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.757423346821801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jiao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="2">
+                  <c:v>-9.49518880889293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.1993656168579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-13.6665568940189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-13.1331422124006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12.6963155588928</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12.5624809453493</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-12.4012795365965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-12.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zhai</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tianshi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-6.21237478756726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.55414391873937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.49518880889293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.82822001457891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.57944165716014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.53078146257009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.93490497177811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.91396339799573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.98143754897357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.67083821855412</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.46008724011683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.16901392149988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.2373079306612</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.19420965356573</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.66533591718517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.7418817923387</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.3160497548896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.65344223860392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.91545260911194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.86410572911172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.96611717587785</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.74082478962184</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.56703254194785</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.3406978989072</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.36809198527616</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.41716828672942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.72959093118457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.37869413891478</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.06643093984723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.26220672989781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.646392034433051</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.54256760776421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Divination</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$J$2:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-7.94934038173347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.66266837551754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.4863322527686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.02236781302845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.6144031161368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.36413465500805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10.3077700318907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.5459297690854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.0815943932977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.5019477320109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.401279536596521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tilbagelevering af religiøs ejendom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$K$2:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="2">
+                  <c:v>-11.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-11.5233169123127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daoisme!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qigong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daoisme!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daoisme!$L$2:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>-7.07770587479638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.37971159147299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.0761475280225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.4863322527686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.02236781302845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.55550942708325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.82195933496637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.76844901518054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.103943429891549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.54098269888684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.58308276750293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.364134655008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.4358540710624</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.7642496053671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.88373426417892</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.65344223860392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10.7228075311695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.224001674198099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.75966629841043</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.5481797116794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-11.1113530581716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.1480528209648</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.76498213784475</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.167190033721</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.103049326712</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.757423346821801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.6014612968177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2047364712"/>
+        <c:axId val="-2047342648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2047364712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2012.0"/>
+          <c:min val="1979.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2047342648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2047342648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-4.0"/>
+          <c:min val="-14.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2047364712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ekstra!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xiejiao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ekstra!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ekstra!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="9">
+                  <c:v>-12.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12.3077700318907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.4966318925766</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.56328660406965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.5263905574505</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-11.3499446385659</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11.304693557471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-12.1864237975389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ekstra!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Falun Gong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ekstra!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ekstra!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="19">
+                  <c:v>-9.80896417491926</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.3446287991315</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.95323312238566</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.23688394025552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12.0869102327321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11.304693557471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-12.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.6545241526765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ekstra!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Religionsfrihed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ekstra!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ekstra!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="12">
+                  <c:v>-12.168045268224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.96321721095828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13.6545241526765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.4012795365965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ekstra!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turisme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ekstra!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ekstra!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-8.534302882454631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.2312211807111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.43740531230729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.61440311613682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.24822408966847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.019987782176511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.45852053869486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.84611717333672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.364134655008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.4358540710624</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.51632209192357</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.69108918623653</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.50041510983309</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.34953255628196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.27423947124019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.77559020778251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.651921439534361</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.60373230474099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.8645178113956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.304693557471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.2405528504619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11.0416591516372</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.34327114520606</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.26220672989781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.31381669534618</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.3790688754813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ekstra!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Folkereligion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ekstra!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ekstra!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-8.21237478756726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.6626683755175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.080151309614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.48633225276866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.2312211807111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.2482240896684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.827342704234111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.52331691231274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.95689468330955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.6910891862365</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.23840473932507</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10.7228075311695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.418629380575361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10.5481797116794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.5263905574505</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.7330153216859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.6718727334532</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12.0416591516372</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.75512602329171</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.0437108633471</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.95408443453548</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.401279536596521</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.8644957026515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ekstra!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kulturarv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ekstra!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ekstra!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-10.5343028824546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.6626683755175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.2312211807111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0223678130284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.73993399822068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.44086916761086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.4123052049552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.1039434298915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.6284455401371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.84611717333672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.364134655008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.5233169123127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.44232151047979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.6910891862365</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.98584193700334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.1308922698066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.0815943932977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.5481797116794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.8889606368352</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.82612472607744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.86451781139566</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.6266216523583</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.9775184446281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.0416591516372</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.87378586190484</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.84716923061897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.70083981845543</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.93849628409535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2047344328"/>
+        <c:axId val="-2047974872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2047344328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2012.0"/>
+          <c:min val="1979.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2047974872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2047974872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-4.0"/>
+          <c:min val="-14.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2047344328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1340,6 +8425,146 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="Diagram 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1705,8 +8930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1719,7 +8944,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1872,7 +9097,7 @@
         <v>1988</v>
       </c>
       <c r="B10" s="1">
-        <v>-9.6632615889473108</v>
+        <v>-9.8076514982824907</v>
       </c>
       <c r="C10">
         <v>-7.6532775003746902</v>
@@ -1889,7 +9114,7 @@
         <v>1989</v>
       </c>
       <c r="B11" s="1">
-        <v>-10.1899127836188</v>
+        <v>-10.3616791318853</v>
       </c>
       <c r="C11">
         <v>-6.4776314528332097</v>
@@ -1974,7 +9199,7 @@
         <v>1994</v>
       </c>
       <c r="B16" s="1">
-        <v>-8.1894161757593107</v>
+        <v>-8.3306718343703494</v>
       </c>
       <c r="C16">
         <v>-7.4177824981403901</v>
@@ -1991,7 +9216,7 @@
         <v>1995</v>
       </c>
       <c r="B17" s="1">
-        <v>-7.6467920238189802</v>
+        <v>-7.8335122678042701</v>
       </c>
       <c r="C17">
         <v>-8.1673144629799204</v>
@@ -2008,7 +9233,7 @@
         <v>1996</v>
       </c>
       <c r="B18" s="1">
-        <v>-8.2715502947227399</v>
+        <v>-8.3812339236497397</v>
       </c>
       <c r="C18">
         <v>-7.04243201019798</v>
@@ -2025,7 +9250,7 @@
         <v>1997</v>
       </c>
       <c r="B19" s="1">
-        <v>-7.70590965849805</v>
+        <v>-7.9653862449186601</v>
       </c>
       <c r="C19">
         <v>-7.5659793973535798</v>
@@ -2042,7 +9267,7 @@
         <v>1998</v>
       </c>
       <c r="B20" s="1">
-        <v>-8.1784870149457305</v>
+        <v>-8.3337652404236398</v>
       </c>
       <c r="C20">
         <v>-7.8927325326118503</v>
@@ -2059,7 +9284,7 @@
         <v>1999</v>
       </c>
       <c r="B21" s="1">
-        <v>-8.7986958394654309</v>
+        <v>-8.8829647563630303</v>
       </c>
       <c r="C21">
         <v>-8.0293542433445602</v>
@@ -2076,7 +9301,7 @@
         <v>2000</v>
       </c>
       <c r="B22" s="1">
-        <v>-9.3591283688267009</v>
+        <v>-9.4441644726825</v>
       </c>
       <c r="C22">
         <v>-7.68927697051903</v>
@@ -2093,7 +9318,7 @@
         <v>2001</v>
       </c>
       <c r="B23" s="1">
-        <v>-8.2751612172730198</v>
+        <v>-8.4647637034917995</v>
       </c>
       <c r="C23">
         <v>-7.7685697801047402</v>
@@ -2110,7 +9335,7 @@
         <v>2002</v>
       </c>
       <c r="B24" s="1">
-        <v>-9.5716198114434992</v>
+        <v>-9.5344278765159203</v>
       </c>
       <c r="C24">
         <v>-8.5398110732128192</v>
@@ -2127,7 +9352,7 @@
         <v>2003</v>
       </c>
       <c r="B25" s="1">
-        <v>-8.82612472607744</v>
+        <v>-9.1405582844178799</v>
       </c>
       <c r="C25">
         <v>-8.1907572719190398</v>
@@ -2144,7 +9369,7 @@
         <v>2004</v>
       </c>
       <c r="B26" s="1">
-        <v>-9.4348335361524196</v>
+        <v>-9.7543348936452396</v>
       </c>
       <c r="C26">
         <v>-7.83898271928852</v>
@@ -2161,7 +9386,7 @@
         <v>2005</v>
       </c>
       <c r="B27" s="1">
-        <v>-8.6322682154995096</v>
+        <v>-8.8770873846890996</v>
       </c>
       <c r="C27">
         <v>-8.04595928907084</v>
@@ -2178,7 +9403,7 @@
         <v>2006</v>
       </c>
       <c r="B28" s="1">
-        <v>-8.8462739113499005</v>
+        <v>-9.1324931046044906</v>
       </c>
       <c r="C28">
         <v>-8.4629452717984002</v>
@@ -2195,7 +9420,7 @@
         <v>2007</v>
       </c>
       <c r="B29" s="1">
-        <v>-8.5659257206708102</v>
+        <v>-8.7988026277410505</v>
       </c>
       <c r="C29">
         <v>-9.0267088101712396</v>
@@ -2212,7 +9437,7 @@
         <v>2008</v>
       </c>
       <c r="B30" s="1">
-        <v>-8.8053061240220707</v>
+        <v>-8.9905995268875891</v>
       </c>
       <c r="C30">
         <v>-7.6911944486263701</v>
@@ -2229,7 +9454,7 @@
         <v>2009</v>
       </c>
       <c r="B31" s="1">
-        <v>-8.6101300333181197</v>
+        <v>-8.9750440531711302</v>
       </c>
       <c r="C31">
         <v>-7.9266036981133698</v>
@@ -2246,7 +9471,7 @@
         <v>2010</v>
       </c>
       <c r="B32" s="1">
-        <v>-8.4163864289867298</v>
+        <v>-8.6530866870070593</v>
       </c>
       <c r="C32">
         <v>-7.1189632976080199</v>
@@ -2263,7 +9488,7 @@
         <v>2011</v>
       </c>
       <c r="B33" s="1">
-        <v>-8.4013216823284598</v>
+        <v>-8.6628618414819307</v>
       </c>
       <c r="C33">
         <v>-8.0050940328243794</v>
@@ -2570,8 +9795,11 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.49212598425196852" footer="0.49212598425196852"/>
+  <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.98" bottom="0.98" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2585,8 +9813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView showRuler="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2603,37 +9831,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3345,8 +10573,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.49212598425196852" footer="0.49212598425196852"/>
+  <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.98" bottom="0.98" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3359,8 +10591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3380,31 +10612,31 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4089,8 +11321,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.49212598425196852" footer="0.49212598425196852"/>
+  <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.98" bottom="0.98" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4103,16 +11339,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showRuler="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.1640625" bestFit="1" customWidth="1"/>
@@ -4124,37 +11358,37 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4207,6 +11441,9 @@
       <c r="J4">
         <v>-10.080151309613999</v>
       </c>
+      <c r="K4">
+        <v>-11.080151309613999</v>
+      </c>
       <c r="L4">
         <v>-7.3797115914729901</v>
       </c>
@@ -4277,6 +11514,9 @@
       <c r="B9">
         <v>-11.1993656168579</v>
       </c>
+      <c r="E9">
+        <v>-12.1993656168579</v>
+      </c>
       <c r="G9">
         <v>-12.1993656168579</v>
       </c>
@@ -4294,6 +11534,9 @@
       <c r="A10">
         <v>1988</v>
       </c>
+      <c r="E10">
+        <v>-12.248224089668399</v>
+      </c>
       <c r="I10">
         <v>-5.9814375489735703</v>
       </c>
@@ -4311,8 +11554,14 @@
       <c r="C11">
         <v>-12.412305204955199</v>
       </c>
+      <c r="E11">
+        <v>-9.8273427042341108</v>
+      </c>
       <c r="I11">
         <v>-5.6708382185541204</v>
+      </c>
+      <c r="K11">
+        <v>-11.412305204955199</v>
       </c>
       <c r="L11">
         <v>-6.7684490151805399</v>
@@ -4328,6 +11577,9 @@
       <c r="C12">
         <v>-10.103943429891499</v>
       </c>
+      <c r="E12">
+        <v>-8.7820153350041892</v>
+      </c>
       <c r="I12">
         <v>-6.4600872401168301</v>
       </c>
@@ -4351,6 +11603,9 @@
       <c r="D13">
         <v>-11.628445540137101</v>
       </c>
+      <c r="E13">
+        <v>-10.628445540137101</v>
+      </c>
       <c r="I13">
         <v>-7.1690139214998796</v>
       </c>
@@ -4362,6 +11617,9 @@
       <c r="A14">
         <v>1992</v>
       </c>
+      <c r="E14">
+        <v>-10.168045268224001</v>
+      </c>
       <c r="F14">
         <v>-7.3606903461664803</v>
       </c>
@@ -4382,6 +11640,9 @@
       <c r="A15">
         <v>1993</v>
       </c>
+      <c r="E15">
+        <v>-9.3641346550080495</v>
+      </c>
       <c r="I15">
         <v>-7.1942096535657303</v>
       </c>
@@ -4402,11 +11663,17 @@
       <c r="D16">
         <v>-12.5233169123127</v>
       </c>
+      <c r="E16">
+        <v>-6.9687280606351099</v>
+      </c>
       <c r="F16">
         <v>-6.7684294101492704</v>
       </c>
       <c r="I16">
         <v>-6.6653359171851703</v>
+      </c>
+      <c r="K16">
+        <v>-11.5233169123127</v>
       </c>
       <c r="L16">
         <v>-8.4358540710623995</v>
@@ -4416,6 +11683,9 @@
       <c r="A17">
         <v>1995</v>
       </c>
+      <c r="E17">
+        <v>-10.7642496053671</v>
+      </c>
       <c r="F17">
         <v>-6.9828898918425004</v>
       </c>
@@ -4439,6 +11709,9 @@
       <c r="B18">
         <v>-9.5211641847942108</v>
       </c>
+      <c r="E18">
+        <v>-10.369161091349101</v>
+      </c>
       <c r="F18">
         <v>-7.2316575675992301</v>
       </c>
@@ -4459,6 +11732,9 @@
       <c r="C19">
         <v>-11.238404739325</v>
       </c>
+      <c r="E19">
+        <v>-11.238404739325</v>
+      </c>
       <c r="F19">
         <v>-11.238404739325</v>
       </c>
@@ -4473,6 +11749,9 @@
       <c r="A20">
         <v>1998</v>
       </c>
+      <c r="E20">
+        <v>-7.2633759125322399</v>
+      </c>
       <c r="F20">
         <v>-8.7228075311695399</v>
       </c>
@@ -4496,6 +11775,9 @@
       <c r="C21">
         <v>-12.1308922698066</v>
       </c>
+      <c r="E21">
+        <v>-9.1308922698066208</v>
+      </c>
       <c r="F21">
         <v>-10.323537347748999</v>
       </c>
@@ -4516,6 +11798,9 @@
       <c r="B22">
         <v>-10.081594393297699</v>
       </c>
+      <c r="E22">
+        <v>-11.6665568940189</v>
+      </c>
       <c r="F22">
         <v>-12.6665568940189</v>
       </c>
@@ -4542,6 +11827,9 @@
       <c r="D23">
         <v>-11.548179711679399</v>
       </c>
+      <c r="E23">
+        <v>-11.1331422124006</v>
+      </c>
       <c r="G23">
         <v>-13.1331422124006</v>
       </c>
@@ -4562,6 +11850,9 @@
       <c r="C24">
         <v>-12.696315558892801</v>
       </c>
+      <c r="E24">
+        <v>-10.888960636835201</v>
+      </c>
       <c r="F24">
         <v>-11.1113530581716</v>
       </c>
@@ -4585,6 +11876,9 @@
       <c r="D25">
         <v>-13.733015321685899</v>
       </c>
+      <c r="E25">
+        <v>-11.733015321685899</v>
+      </c>
       <c r="F25">
         <v>-9.6455524804356205</v>
       </c>
@@ -4608,6 +11902,9 @@
       <c r="D26">
         <v>-13.671872733453201</v>
       </c>
+      <c r="E26">
+        <v>-9.6718727334532701</v>
+      </c>
       <c r="F26">
         <v>-10.501947732010899</v>
       </c>
@@ -4703,6 +12000,9 @@
       <c r="D30">
         <v>-12.0437108633471</v>
       </c>
+      <c r="E30">
+        <v>-13.0437108633471</v>
+      </c>
       <c r="F30">
         <v>-8.18572986821958</v>
       </c>
@@ -4726,6 +12026,9 @@
       <c r="B31">
         <v>-12.654524152676499</v>
       </c>
+      <c r="E31">
+        <v>-10.195092534039199</v>
+      </c>
       <c r="F31">
         <v>-7.2969721480584901</v>
       </c>
@@ -4794,8 +12097,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.49212598425196852" footer="0.49212598425196852"/>
+  <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.98" bottom="0.98" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4808,41 +12115,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4852,11 +12157,23 @@
       <c r="E2">
         <v>-8.5343028824546305</v>
       </c>
+      <c r="F2">
+        <v>-8.2123747875672599</v>
+      </c>
+      <c r="G2">
+        <v>-10.5343028824546</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>1981</v>
       </c>
+      <c r="F3">
+        <v>-10.6626683755175</v>
+      </c>
+      <c r="G3">
+        <v>-10.6626683755175</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -4865,6 +12182,9 @@
       <c r="E4">
         <v>-11.080151309613999</v>
       </c>
+      <c r="F4">
+        <v>-10.080151309613999</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -4875,6 +12195,9 @@
       <c r="A6">
         <v>1984</v>
       </c>
+      <c r="F6">
+        <v>-7.4863322527686602</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -4883,6 +12206,12 @@
       <c r="E7">
         <v>-10.231221180711101</v>
       </c>
+      <c r="F7">
+        <v>-10.231221180711101</v>
+      </c>
+      <c r="G7">
+        <v>-10.231221180711101</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -4891,6 +12220,9 @@
       <c r="E8">
         <v>-8.4374053123072894</v>
       </c>
+      <c r="G8">
+        <v>-10.022367813028399</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
@@ -4899,6 +12231,9 @@
       <c r="E9">
         <v>-8.6144031161368204</v>
       </c>
+      <c r="G9">
+        <v>-8.7399339982206801</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -4907,6 +12242,12 @@
       <c r="E10">
         <v>-9.2482240896684704</v>
       </c>
+      <c r="F10">
+        <v>-10.248224089668399</v>
+      </c>
+      <c r="G10">
+        <v>-8.4408691676108596</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
@@ -4918,6 +12259,12 @@
       <c r="E11">
         <v>-8.0199877821765106</v>
       </c>
+      <c r="F11">
+        <v>-9.8273427042341108</v>
+      </c>
+      <c r="G11">
+        <v>-10.412305204955199</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
@@ -4929,6 +12276,12 @@
       <c r="E12">
         <v>-11.103943429891499</v>
       </c>
+      <c r="F12">
+        <v>-11.103943429891499</v>
+      </c>
+      <c r="G12">
+        <v>-10.103943429891499</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
@@ -4937,13 +12290,25 @@
       <c r="E13">
         <v>-8.4585205386948594</v>
       </c>
+      <c r="F13">
+        <v>-12.628445540137101</v>
+      </c>
+      <c r="G13">
+        <v>-10.628445540137101</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>1992</v>
       </c>
+      <c r="D14">
+        <v>-12.168045268224001</v>
+      </c>
       <c r="E14">
         <v>-8.8461171733367205</v>
+      </c>
+      <c r="G14">
+        <v>-9.8461171733367205</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4953,6 +12318,9 @@
       <c r="E15">
         <v>-10.364134655008</v>
       </c>
+      <c r="G15">
+        <v>-10.364134655008</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
@@ -4961,29 +12329,50 @@
       <c r="E16">
         <v>-8.4358540710623995</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>-9.5233169123127404</v>
+      </c>
+      <c r="G16">
+        <v>-10.5233169123127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1995</v>
       </c>
       <c r="E17">
         <v>-8.5163220919235698</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>-9.9568946833095495</v>
+      </c>
+      <c r="G17">
+        <v>-9.4423215104797897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1996</v>
       </c>
       <c r="E18">
         <v>-8.69108918623653</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>-11.6910891862365</v>
+      </c>
+      <c r="G18">
+        <v>-11.6910891862365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1997</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>-9.2384047393250697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -4993,8 +12382,14 @@
       <c r="E20">
         <v>-9.5004151098330905</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>-10.722807531169501</v>
+      </c>
+      <c r="G20">
+        <v>-9.9858419370033396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -5007,8 +12402,14 @@
       <c r="E21">
         <v>-7.34953255628196</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>-13.1308922698066</v>
+      </c>
+      <c r="G21">
+        <v>-10.1308922698066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -5021,8 +12422,14 @@
       <c r="E22">
         <v>-9.2742394712401897</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>-9.4186293805753607</v>
+      </c>
+      <c r="G22">
+        <v>-11.081594393297699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -5032,11 +12439,20 @@
       <c r="C23">
         <v>-5.9532331223856598</v>
       </c>
+      <c r="D23">
+        <v>-9.9632172109582804</v>
+      </c>
       <c r="E23">
         <v>-7.7755902077825096</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>-10.548179711679399</v>
+      </c>
+      <c r="G23">
+        <v>-11.548179711679399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -5049,8 +12465,14 @@
       <c r="E24">
         <v>-8.6519214395343607</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>-9.5263905574504992</v>
+      </c>
+      <c r="G24">
+        <v>-10.888960636835201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -5060,11 +12482,20 @@
       <c r="C25">
         <v>-13.733015321685899</v>
       </c>
+      <c r="D25">
+        <v>-13.733015321685899</v>
+      </c>
       <c r="E25">
         <v>-8.6037323047409906</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>-11.733015321685899</v>
+      </c>
+      <c r="G25">
+        <v>-9.82612472607744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -5077,8 +12508,14 @@
       <c r="E26">
         <v>-10.864517811395601</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>-10.671872733453201</v>
+      </c>
+      <c r="G26">
+        <v>-9.8645178113956593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -5091,16 +12528,28 @@
       <c r="E27">
         <v>-10.304693557470999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>-12.0416591516372</v>
+      </c>
+      <c r="G27">
+        <v>-10.626621652358301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2006</v>
       </c>
       <c r="E28">
         <v>-10.240552850461899</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>-9.7551260232917105</v>
+      </c>
+      <c r="G28">
+        <v>-10.9775184446281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -5113,8 +12562,14 @@
       <c r="E29">
         <v>-11.0416591516372</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>-11.626621652358301</v>
+      </c>
+      <c r="G29">
+        <v>-10.0416591516372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -5124,27 +12579,51 @@
       <c r="E30">
         <v>-9.3432711452060602</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>-12.0437108633471</v>
+      </c>
+      <c r="G30">
+        <v>-9.8737858619048406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2009</v>
       </c>
       <c r="C31">
         <v>-13.654524152676499</v>
       </c>
+      <c r="D31">
+        <v>-13.654524152676499</v>
+      </c>
       <c r="E31">
         <v>-9.2622067298978106</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>-9.9540844345354795</v>
+      </c>
+      <c r="G31">
+        <v>-9.8471692306189702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2010</v>
       </c>
+      <c r="D32">
+        <v>-13.401279536596499</v>
+      </c>
       <c r="E32">
         <v>-8.3138166953461798</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>-9.4012795365965207</v>
+      </c>
+      <c r="G32">
+        <v>-9.7008398184554299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -5153,13 +12632,23 @@
       </c>
       <c r="E33">
         <v>-10.3790688754813</v>
+      </c>
+      <c r="F33">
+        <v>-10.864495702651499</v>
+      </c>
+      <c r="G33">
+        <v>-8.9384962840953506</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.49212598425196852" footer="0.49212598425196852"/>
+  <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.98" bottom="0.98" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
